--- a/biology/Zoologie/Espaces_naturels_de_Picardie/Espaces_naturels_de_Picardie.xlsx
+++ b/biology/Zoologie/Espaces_naturels_de_Picardie/Espaces_naturels_de_Picardie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espaces naturels de Picardie sont extrêmement variés : coteaux calcaires, larris, zones humides (dont mares, étangs, tourbières, prairies alluviales, landes acides, cavités souterraines…), massifs dunaires, massifs forestiers… d'un grand intérêt car abritant de nombreuses espèces animales et végétales, très rares, vulnérables ou menacées. Plus de 150 de ces sites (soit ~ 10 000 ha) sont étudiés, gérés ou surveillés par le Conservatoire d'espaces naturels de Picardie. 
 </t>
@@ -511,7 +523,9 @@
           <t>Sites naturels protégés du département de l'Aisne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En juin 2005, le Conservatoire des sites naturels de Picardie (aujourd'hui Conservatoire d'espaces naturels de Picardie), missionné par le Conseil général de l'Aisne avait recensé 155 sites naturels sensibles dans lesquels des mesures de protection étaient à prendre.
 Réserve naturelle nationale (RNN) - Réserve naturelle régionale (RNR)
@@ -565,7 +579,9 @@
           <t>Sites naturels protégés du département de l'Oise</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Conseil général de l'Oise a adopté en 2007 un schéma départemental des Espaces naturels sensibles en partenariat avec le Conservatoire d'espaces naturels de Picardie, l'Office national des forêts (ONF) et le Parc naturel régional Oise-Pays de France qui a permis de dresser l'inventaire des 244 Espaces naturels sensibles (ENS) du département, dont 66 d'intérêt départemental. 
 Réserve naturelle nationale (RNN) - Réserve naturelle régionale (RNR)
@@ -659,7 +675,9 @@
           <t>Sites naturels protégés du département de la Somme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le département de la Somme possède plusieurs espaces naturels d'importance nationale sur le littoral de la Manche. Le Conseil départemental de la Somme, avec le concours du Conservatoire des sites naturels de Picardie (aujourd'hui, Conservatoire d'espaces naturels de Picardie) s'efforce de protéger et de mettre en valeur une cinquantaine d'Espace naturels sensibles (~ 5 000 ha).
 Parc naturel marin des estuaires picards et de la mer d’Opale, créé le 11 décembre 2012
@@ -742,29 +760,180 @@
 Vaux-sur-Somme : Étangs de La Barette
 Vaux-sur-Somme : Larris communal
 Villers-sous-Ailly : Larris de la Vallée de Bouchon
-Villers-sur-Authie : Marais du Pendé
-Autres espaces naturels
-Littoral
-La Baie d'Authie (Conservatoire de l'espace littoral et des rivages lacustres)
+Villers-sur-Authie : Marais du Pendé</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Espaces_naturels_de_Picardie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Espaces_naturels_de_Picardie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sites naturels protégés du département de la Somme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres espaces naturels</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Littoral</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Baie d'Authie (Conservatoire de l'espace littoral et des rivages lacustres)
 Cayeux-sur-Mer : le Hâble-d'Ault, Zone naturelle d'intérêt écologique, faunistique et floristique (Z.N.I.E.F.F.) n° 2 200 049 771.
 Mers-les-Bains : Le bois de Rompval
 Fort-Mahon-Plage : La dune de l'Authie
-Fort-Mahon-Plage : La dune du Royon
-Espaces forestiers
-Forêt de Beaucamps-le-Jeune (forêt domaniale)
+Fort-Mahon-Plage : La dune du Royon</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Espaces_naturels_de_Picardie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Espaces_naturels_de_Picardie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sites naturels protégés du département de la Somme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres espaces naturels</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Espaces forestiers</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Forêt de Beaucamps-le-Jeune (forêt domaniale)
 Forêt de Crécy (forêt domaniale)
 Forêt de Creuse (forêt domaniale)
 Bois de Frémontiers (bois de la ville d'Amiens)
-Bois Magneux et Bois de Fau-Timon (bois de la ville d'Amiens)
-Vallées
-Basse vallée de la Somme
+Bois Magneux et Bois de Fau-Timon (bois de la ville d'Amiens)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Espaces_naturels_de_Picardie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Espaces_naturels_de_Picardie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sites naturels protégés du département de la Somme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres espaces naturels</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Vallées</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Basse vallée de la Somme
 Amiens : Les Hortillonnages
 La vallée de la Vimeuse
 La vallée du Liger
 La vallée des Évoissons
-La Coulée verte (vallée de la Selle)
-Prairies
-Liercourt : Les prairies de Liercourt
+La Coulée verte (vallée de la Selle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Espaces_naturels_de_Picardie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Espaces_naturels_de_Picardie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sites naturels protégés du département de la Somme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres espaces naturels</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Prairies</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Liercourt : Les prairies de Liercourt
 Nesle-l'Hôpital : Les prairies
 La Traverse du Ponthieu</t>
         </is>
